--- a/Document/BkrAppConfig.xlsx
+++ b/Document/BkrAppConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Hostname</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>10.44.48.34</t>
+  </si>
+  <si>
+    <t>Mangement</t>
+  </si>
+  <si>
+    <t>http://10.44.48.37:19990/console/App.html</t>
   </si>
 </sst>
 </file>
@@ -678,10 +687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -721,6 +730,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
@@ -734,7 +751,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -790,10 +807,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -801,9 +818,10 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +831,11 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -824,8 +845,11 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
